--- a/xlsx/語言學_intext.xlsx
+++ b/xlsx/語言學_intext.xlsx
@@ -29,7 +29,7 @@
     <t>理论语言学</t>
   </si>
   <si>
-    <t>政策_政策_政治學_語言學</t>
+    <t>体育运动_体育运动_技术_語言學</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AF%AD%E9%9F%B3%E5%AD%A6</t>
@@ -7446,7 +7446,7 @@
         <v>336</v>
       </c>
       <c r="G173" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H173" t="s">
         <v>4</v>
@@ -7475,7 +7475,7 @@
         <v>338</v>
       </c>
       <c r="G174" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H174" t="s">
         <v>4</v>
@@ -8084,7 +8084,7 @@
         <v>378</v>
       </c>
       <c r="G195" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -9302,7 +9302,7 @@
         <v>462</v>
       </c>
       <c r="G237" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H237" t="s">
         <v>4</v>
